--- a/Data_Entry.xlsx
+++ b/Data_Entry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -25,25 +25,22 @@
     <t>Favorite Colour</t>
   </si>
   <si>
-    <t>German</t>
-  </si>
-  <si>
-    <t>Spanish</t>
+    <t>I speak</t>
   </si>
   <si>
     <t>Children</t>
   </si>
   <si>
+    <t>Celine Villareal</t>
+  </si>
+  <si>
+    <t>Glenview</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
     <t>English</t>
-  </si>
-  <si>
-    <t>Maryan Arrieta</t>
-  </si>
-  <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>Red</t>
   </si>
 </sst>
 </file>
@@ -401,13 +398,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,34 +420,22 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="b">
+      <c r="E2">
         <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
